--- a/test-05-07-2024/temp.xlsx
+++ b/test-05-07-2024/temp.xlsx
@@ -12,7 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>Name file</t>
+  </si>
+  <si>
+    <t>Size file</t>
+  </si>
+  <si>
+    <t>Hash file</t>
+  </si>
   <si>
     <t>Screenshot from 2024-07-02 17-37-44.png</t>
   </si>
@@ -145,13 +157,13 @@
         <v>1.0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="n" s="0">
         <v>292233.0</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -159,13 +171,13 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>103437.0</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -173,13 +185,13 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>69839.0</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +199,13 @@
         <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>165016.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -201,13 +213,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>312709.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -215,13 +227,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>335628.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -229,13 +241,13 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>239872.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -243,13 +255,13 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>256155.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -257,13 +269,13 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>495023.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -271,13 +283,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>20663.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -285,13 +297,13 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>44318.0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -299,13 +311,13 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>129241.0</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -313,13 +325,13 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>208027.0</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
